--- a/Assets/StreamingAssets/StoryScript6.xlsx
+++ b/Assets/StreamingAssets/StoryScript6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853F51E2-2FB4-4640-BC08-CF831A0855EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5ED1FC-3A42-BD45-B25C-199767549094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,18 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>先生，认为他们的证言有问题吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这两个人的证词相辅相成，基本没有破绽，应该是真实的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果凶手是其中一人，那另一人必定是共犯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Choice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,22 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5_Mei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5_Ming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>而且他们常年在山庄内工作，庄主对他们应该是十分了解的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因此这两个人嫌疑不大，希望可以从接下来的人的证词里找出与矛盾的地方吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yao-Regular</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,6 +167,34 @@
   </si>
   <si>
     <t>Yao-Thinking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you think there’s anything suspicious about their testimony, sir?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Their testimonies complement each other, with no apparent contradictions. I believe they are telling the truth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If one of them were the culprit, then the other must be an accomplice.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Besides, they’ve worked in the manor for years—Lord Xu would know them well.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So their suspicion is relatively low. Let’s hope we can uncover contradictions in the testimonies of the others.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6_Mei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6_Ming</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -253,7 +253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -262,12 +262,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -606,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E2" sqref="E2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -675,33 +669,33 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:16" ht="34">
+      <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="3">
         <v>0</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>36</v>
+      <c r="I2" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>19</v>
@@ -710,230 +704,149 @@
         <v>0</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="34">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:16" ht="51">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="17">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:16" ht="34">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5">
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
         <v>0</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>37</v>
+      <c r="I4" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:16" ht="34">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:16" ht="34">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5">
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
         <v>0</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>38</v>
+      <c r="I6" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:16" ht="17">
-      <c r="A7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:16" ht="17">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="5" t="s">
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/StreamingAssets/StoryScript6.xlsx
+++ b/Assets/StreamingAssets/StoryScript6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5ED1FC-3A42-BD45-B25C-199767549094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E626226-2790-F74E-800E-922195C51142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,14 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lady Mei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xu Ming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yao-Regular</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,10 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Besides, they’ve worked in the manor for years—Lord Xu would know them well.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>So their suspicion is relatively low. Let’s hope we can uncover contradictions in the testimonies of the others.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,6 +183,18 @@
   </si>
   <si>
     <t>6_Ming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Besides, they’ve worked in the manor for years—the Lord would know them well.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madam Mei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ming</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,7 +603,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -674,10 +674,10 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>19</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="51">
@@ -712,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -735,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -762,7 +762,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -785,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -812,13 +812,10 @@
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -829,13 +826,10 @@
     </row>
     <row r="8" spans="1:16" ht="17">
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>14</v>

--- a/Assets/StreamingAssets/StoryScript6.xlsx
+++ b/Assets/StreamingAssets/StoryScript6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E626226-2790-F74E-800E-922195C51142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5C432F-78A2-A946-9A37-B903F4A850C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,14 +147,6 @@
   </si>
   <si>
     <t>Dee-Thinking2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dee-Thinking1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dee-Regular</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -603,7 +595,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -674,7 +666,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
@@ -704,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="51">
@@ -712,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -735,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -747,12 +739,8 @@
         <v>20</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -762,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -785,7 +773,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -797,12 +785,8 @@
         <v>20</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -812,10 +796,10 @@
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -826,10 +810,10 @@
     </row>
     <row r="8" spans="1:16" ht="17">
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>14</v>
